--- a/prueba/origen.xlsx
+++ b/prueba/origen.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Python\prueba\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\newpython\Python\prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{085C985D-BC19-4B6A-9F3C-9C777016F8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD9328E-0B8A-41D6-B68F-E21A0B1ABE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B210F036-3A00-4868-B395-540E20BAC16F}"/>
   </bookViews>
@@ -33,16 +33,16 @@
     <t>valor</t>
   </si>
   <si>
-    <t>entry.2107287478</t>
-  </si>
-  <si>
-    <t>entry.695693576</t>
-  </si>
-  <si>
-    <t>entry.1118228586</t>
-  </si>
-  <si>
-    <t>entry.439745992</t>
+    <t>entry.1498135098</t>
+  </si>
+  <si>
+    <t>entry.877086558</t>
+  </si>
+  <si>
+    <t>entry.1424661284</t>
+  </si>
+  <si>
+    <t>entry.2606285</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,7 +418,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -426,7 +426,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
